--- a/registro.xlsx
+++ b/registro.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\builds\builds-EsportazioneFatture\build-EsportazioneFatture-Desktop_Qt_5_15_0_MinGW_32_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F138F86F-1D0F-4978-9C47-4100A5E36104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C33EC-3E38-40CB-83C2-6A280BE53755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC9C3FB4-6354-4543-B3BD-FC0EEFAF90D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dummy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +34,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Importi delle operazioni</t>
+  </si>
+  <si>
+    <t>Importi imponibili</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Aliquota 4%</t>
+  </si>
+  <si>
+    <t>Aliquota 10%</t>
+  </si>
+  <si>
+    <t>Aliquota 22%</t>
+  </si>
+  <si>
+    <t>TOT.</t>
+  </si>
+  <si>
+    <t>Aliquota 5%</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>P. IVA</t>
+  </si>
+  <si>
+    <t>N° operazione</t>
+  </si>
+  <si>
+    <t>Spese 22%</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$€-410]\ * #,##0.00_-;\-[$€-410]\ * #,##0.00_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +90,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,17 +168,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="dashDot">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dashDot">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="dashDot">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dashDot">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -89,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -105,7 +394,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -117,7 +406,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -131,12 +420,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -164,31 +453,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -216,23 +488,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,15 +639,732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44606F2-E15C-4C13-AC9E-D21937820EB4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="14.7109375" style="1"/>
+    <col min="17" max="16384" width="14.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="10">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E37">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/registro.xlsx
+++ b/registro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\builds\builds-EsportazioneFatture\build-EsportazioneFatture-Desktop_Qt_5_15_0_MinGW_32_bit-Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\builds\builds-EsportazioneFatture\build-EsportazioneFatture-Desktop_Qt_5_15_0_MinGW_32_bit-Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C33EC-3E38-40CB-83C2-6A280BE53755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30621019-3B59-4C79-ACD3-EF6A888286C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Descrizione</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Spese 22%</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -321,13 +324,13 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,9 +341,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="20% - Colore 6" xfId="3" builtinId="50"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="2" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="2">
@@ -640,695 +643,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="14.7109375" style="1"/>
-    <col min="17" max="16384" width="14.7109375" style="1"/>
+    <col min="1" max="16" width="14.7109375" style="1"/>
+    <col min="18" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -1339,24 +1381,26 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="10">
-    <mergeCell ref="N1:O1"/>
+  <mergeCells count="11">
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E37">
+  <conditionalFormatting sqref="F3:F37">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/registro.xlsx
+++ b/registro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\builds\builds-EsportazioneFatture\build-EsportazioneFatture-Desktop_Qt_5_15_0_MinGW_32_bit-Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30621019-3B59-4C79-ACD3-EF6A888286C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684D758-CC98-43EE-912C-1DDB4FAFA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-410]\ * #,##0.00_-;\-[$€-410]\ * #,##0.00_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,7 +125,14 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +140,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -298,45 +306,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,12 +654,16 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="14.7109375" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16" width="14.7109375" style="1"/>
     <col min="18" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -695,7 +707,7 @@
       </c>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -734,634 +746,634 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="5"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">

--- a/registro.xlsx
+++ b/registro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\builds\builds-EsportazioneFatture\build-EsportazioneFatture-Desktop_Qt_5_15_0_MinGW_32_bit-Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\Documents\Repositories\c++\altro\EsportazioneFatture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684D758-CC98-43EE-912C-1DDB4FAFA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CCE64A-17FB-40DB-9DEA-EAF9B3384036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Descrizione</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Altro</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,11 +666,10 @@
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="6" width="14.7109375" style="1"/>
     <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16" width="14.7109375" style="1"/>
-    <col min="18" max="16384" width="14.7109375" style="1"/>
+    <col min="8" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -706,8 +708,11 @@
         <v>12</v>
       </c>
       <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="Q1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -744,8 +749,9 @@
       <c r="P2" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -762,8 +768,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -780,8 +787,9 @@
       <c r="N4" s="10"/>
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -798,8 +806,9 @@
       <c r="N5" s="10"/>
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -816,8 +825,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="9"/>
       <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -834,8 +844,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -852,8 +863,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -870,8 +882,9 @@
       <c r="N9" s="10"/>
       <c r="O9" s="9"/>
       <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -888,8 +901,9 @@
       <c r="N10" s="10"/>
       <c r="O10" s="9"/>
       <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -906,8 +920,9 @@
       <c r="N11" s="10"/>
       <c r="O11" s="9"/>
       <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -924,8 +939,9 @@
       <c r="N12" s="10"/>
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -942,8 +958,9 @@
       <c r="N13" s="10"/>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -960,8 +977,9 @@
       <c r="N14" s="10"/>
       <c r="O14" s="9"/>
       <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -978,8 +996,9 @@
       <c r="N15" s="10"/>
       <c r="O15" s="9"/>
       <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -996,8 +1015,9 @@
       <c r="N16" s="10"/>
       <c r="O16" s="9"/>
       <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1014,8 +1034,9 @@
       <c r="N17" s="10"/>
       <c r="O17" s="9"/>
       <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1032,8 +1053,9 @@
       <c r="N18" s="10"/>
       <c r="O18" s="9"/>
       <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1050,8 +1072,9 @@
       <c r="N19" s="10"/>
       <c r="O19" s="9"/>
       <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1068,8 +1091,9 @@
       <c r="N20" s="10"/>
       <c r="O20" s="9"/>
       <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1086,8 +1110,9 @@
       <c r="N21" s="10"/>
       <c r="O21" s="9"/>
       <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1104,8 +1129,9 @@
       <c r="N22" s="10"/>
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1122,8 +1148,9 @@
       <c r="N23" s="10"/>
       <c r="O23" s="9"/>
       <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1140,8 +1167,9 @@
       <c r="N24" s="10"/>
       <c r="O24" s="9"/>
       <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1158,8 +1186,9 @@
       <c r="N25" s="10"/>
       <c r="O25" s="9"/>
       <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1176,8 +1205,9 @@
       <c r="N26" s="10"/>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1194,8 +1224,9 @@
       <c r="N27" s="10"/>
       <c r="O27" s="9"/>
       <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1212,8 +1243,9 @@
       <c r="N28" s="10"/>
       <c r="O28" s="9"/>
       <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1230,8 +1262,9 @@
       <c r="N29" s="10"/>
       <c r="O29" s="9"/>
       <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1248,8 +1281,9 @@
       <c r="N30" s="10"/>
       <c r="O30" s="9"/>
       <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1266,8 +1300,9 @@
       <c r="N31" s="10"/>
       <c r="O31" s="9"/>
       <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1284,8 +1319,9 @@
       <c r="N32" s="10"/>
       <c r="O32" s="9"/>
       <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1302,8 +1338,9 @@
       <c r="N33" s="10"/>
       <c r="O33" s="9"/>
       <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1320,8 +1357,9 @@
       <c r="N34" s="10"/>
       <c r="O34" s="9"/>
       <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1338,8 +1376,9 @@
       <c r="N35" s="10"/>
       <c r="O35" s="9"/>
       <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1356,8 +1395,9 @@
       <c r="N36" s="10"/>
       <c r="O36" s="9"/>
       <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1374,8 +1414,9 @@
       <c r="N37" s="10"/>
       <c r="O37" s="9"/>
       <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>7</v>
       </c>
@@ -1394,12 +1435,14 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
